--- a/Registro de atividades.xlsx
+++ b/Registro de atividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Revisão</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Diagrama de classes, Fila de anuncios , funcionamento adicional do sistema e ferramentas utilizadas</t>
+  </si>
+  <si>
+    <t>22/1182018</t>
+  </si>
+  <si>
+    <t>Diagrama de classes revisado,Lista de disponibilidades, modelagem do modulo,funcionamento adicional do sistema, sequencia de testes,dificuldades encontradas,Arquitetura do sistema,ferramentas utilizada revisado, manual do usuario</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,13 +187,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +509,7 @@
   <dimension ref="A4:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,12 +522,12 @@
   <sheetData>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -535,14 +543,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5">
         <v>43413</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -563,21 +571,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Registro de atividades.xlsx
+++ b/Registro de atividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Revisão</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Diagrama de classes revisado,Lista de disponibilidades, modelagem do modulo,funcionamento adicional do sistema, sequencia de testes,dificuldades encontradas,Arquitetura do sistema,ferramentas utilizada revisado, manual do usuario</t>
+  </si>
+  <si>
+    <t>Resumo(revisado), Projeto final, Plano de testes, Dificuldades encontradas, manual do usuario(revisado)</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +193,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,11 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +515,7 @@
   <dimension ref="A4:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +528,12 @@
   <sheetData>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -585,13 +591,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="14">
+        <v>43434</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
